--- a/GreenNet/BOM.xlsx
+++ b/GreenNet/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benj2003\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\EE333\green-net\GreenNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BE45C8-86A4-45FE-9C15-494010B0F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE317F8-9B2A-407D-A193-01D0E2B648CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
   <si>
     <t>Index</t>
   </si>
@@ -63,13 +63,277 @@
     <t>Extended Price USD</t>
   </si>
   <si>
-    <t>1738-1103-ND</t>
-  </si>
-  <si>
-    <t>SEN0114</t>
-  </si>
-  <si>
-    <t>SOIL MOISTURE SENSOR (ARDUINO CO</t>
+    <t>317-1258-ND</t>
+  </si>
+  <si>
+    <t>MF52A2103J3470</t>
+  </si>
+  <si>
+    <t>THERMISTOR NTC 10KOHM 3470K BEAD</t>
+  </si>
+  <si>
+    <t>450-1650-ND</t>
+  </si>
+  <si>
+    <t>1825910-6</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 24V</t>
+  </si>
+  <si>
+    <t>BH-18650-PC-ND</t>
+  </si>
+  <si>
+    <t>BH-18650-PC</t>
+  </si>
+  <si>
+    <t>BATTERY HOLDER 18650 PC PIN</t>
+  </si>
+  <si>
+    <t>S9001-ND</t>
+  </si>
+  <si>
+    <t>SPC02SYAN</t>
+  </si>
+  <si>
+    <t>CONN JUMPER SHORTING GOLD FLASH</t>
+  </si>
+  <si>
+    <t>1568-1488-ND</t>
+  </si>
+  <si>
+    <t>PRT-12895</t>
+  </si>
+  <si>
+    <t>BATTERY LITH-ION 3.7V 2.6AH 1865</t>
+  </si>
+  <si>
+    <t>587-4156-1-ND</t>
+  </si>
+  <si>
+    <t>MBKK2012T1R0M</t>
+  </si>
+  <si>
+    <t>FIXED IND 1UH 1.45A 106 MOHM SMD</t>
+  </si>
+  <si>
+    <t>399-C0805C391J4HAC7800CT-ND</t>
+  </si>
+  <si>
+    <t>C0805C391J4HAC7800</t>
+  </si>
+  <si>
+    <t>CAP CER 390PF 16V X8R 0805</t>
+  </si>
+  <si>
+    <t>399-C0805C333K5RAC7800CT-ND</t>
+  </si>
+  <si>
+    <t>C0805C333K5RAC7800</t>
+  </si>
+  <si>
+    <t>CAP CER 0.033UF 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>1276-1100-1-ND</t>
+  </si>
+  <si>
+    <t>CL21A226MQQNNNE</t>
+  </si>
+  <si>
+    <t>CAP CER 22UF 6.3V X5R 0805</t>
+  </si>
+  <si>
+    <t>D5V0M1U2S9-7DICT-ND</t>
+  </si>
+  <si>
+    <t>D5V0M1U2S9-7</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5.5VWM 12VC SOD923</t>
+  </si>
+  <si>
+    <t>732-4987-1-ND</t>
+  </si>
+  <si>
+    <t>150080YS75000</t>
+  </si>
+  <si>
+    <t>LED YELLOW CLEAR 0805 SMD</t>
+  </si>
+  <si>
+    <t>732-4986-1-ND</t>
+  </si>
+  <si>
+    <t>150080VS75000</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR 0805 SMD</t>
+  </si>
+  <si>
+    <t>732-4985-1-ND</t>
+  </si>
+  <si>
+    <t>150080SS75000</t>
+  </si>
+  <si>
+    <t>LED RED CLEAR 0805 SMD</t>
+  </si>
+  <si>
+    <t>1727-5057-1-ND</t>
+  </si>
+  <si>
+    <t>NZH10C,115</t>
+  </si>
+  <si>
+    <t>DIODE ZENER 10V 500MW SOD123F</t>
+  </si>
+  <si>
+    <t>296-43584-1-ND</t>
+  </si>
+  <si>
+    <t>BQ24250RGER</t>
+  </si>
+  <si>
+    <t>IC BATT CHG LI-ION 1CELL 24VQFN</t>
+  </si>
+  <si>
+    <t>NCP186AMX330TAGOSCT-ND</t>
+  </si>
+  <si>
+    <t>NCP186AMX330TAG</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 1A 8XDFN</t>
+  </si>
+  <si>
+    <t>2057-PH1-14-UA-ND</t>
+  </si>
+  <si>
+    <t>PH1-14-UA</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 14POS 2.54MM</t>
+  </si>
+  <si>
+    <t>732-5317-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 4POS 2.54MM</t>
+  </si>
+  <si>
+    <t>732-5316-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 3POS 2.54MM</t>
+  </si>
+  <si>
+    <t>IRF9358TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>IRF9358TRPBF</t>
+  </si>
+  <si>
+    <t>MOSFET 2P-CH 30V 9.2A 8SO</t>
+  </si>
+  <si>
+    <t>SI3932DV-T1-GE3CT-ND</t>
+  </si>
+  <si>
+    <t>SI3932DV-T1-GE3</t>
+  </si>
+  <si>
+    <t>MOSFET 2N-CH 30V 3.7A 6TSOP</t>
+  </si>
+  <si>
+    <t>SI3993CDV-T1-GE3CT-ND</t>
+  </si>
+  <si>
+    <t>SI3993CDV-T1-GE3</t>
+  </si>
+  <si>
+    <t>MOSFET 2P-CH 30V 2.9A 6TSOP</t>
+  </si>
+  <si>
+    <t>4786-2N7002KCT-ND</t>
+  </si>
+  <si>
+    <t>2N7002K</t>
+  </si>
+  <si>
+    <t>MOSFET, N-CH, SINGLE, 0.3A, 60V,</t>
+  </si>
+  <si>
+    <t>4786-MMDT3904CT-ND</t>
+  </si>
+  <si>
+    <t>MMDT3904</t>
+  </si>
+  <si>
+    <t>TRANSISTOR, NPN, DUAL, 200MA, 60</t>
+  </si>
+  <si>
+    <t>P49.9KDACT-ND</t>
+  </si>
+  <si>
+    <t>ERA-6AEB4992V</t>
+  </si>
+  <si>
+    <t>RES SMD 49.9K OHM 0.1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>2019-RCWCTECT-ND</t>
+  </si>
+  <si>
+    <t>RCWCTE</t>
+  </si>
+  <si>
+    <t>PC TEST POINT</t>
+  </si>
+  <si>
+    <t>1965-ESP32-S3-WROOM-1-N16R2CT-ND</t>
+  </si>
+  <si>
+    <t>ESP32-S3-WROOM-1-N16R2</t>
+  </si>
+  <si>
+    <t>RF TXRX MODULE BT PCB TRACE SMD</t>
+  </si>
+  <si>
+    <t>2073-USB4105-GF-ACT-ND</t>
+  </si>
+  <si>
+    <t>USB4105-GF-A</t>
+  </si>
+  <si>
+    <t>CONN RCP USB2.0 TYP C 24P SMD RA</t>
+  </si>
+  <si>
+    <t>336-5889-ND</t>
+  </si>
+  <si>
+    <t>CP2102N-A02-GQFN28</t>
+  </si>
+  <si>
+    <t>IC USB TO UART BRIDGE QFN28</t>
+  </si>
+  <si>
+    <t>828-1063-1-ND</t>
+  </si>
+  <si>
+    <t>BME280</t>
+  </si>
+  <si>
+    <t>SENSOR PRESSURE HUMIDITY TEMP</t>
+  </si>
+  <si>
+    <t>448-CYPD3177-24LQXQTCT-ND</t>
+  </si>
+  <si>
+    <t>CYPD3177-24LQXQT</t>
+  </si>
+  <si>
+    <t>IC USB TYPE-C PORT CONTROL 24QFN</t>
   </si>
   <si>
     <t>160-2161-1-ND</t>
@@ -81,194 +345,35 @@
     <t>SENSOR OPT AMBIENT 6 VFDFN</t>
   </si>
   <si>
-    <t>448-CYPD3177-24LQXQTCT-ND</t>
-  </si>
-  <si>
-    <t>CYPD3177-24LQXQT</t>
-  </si>
-  <si>
-    <t>IC USB TYPE-C PORT CONTROL 24QFN</t>
-  </si>
-  <si>
-    <t>828-1063-1-ND</t>
-  </si>
-  <si>
-    <t>BME280</t>
-  </si>
-  <si>
-    <t>SENSOR PRESSURE HUMIDITY TEMP</t>
-  </si>
-  <si>
-    <t>336-5890-1-ND</t>
-  </si>
-  <si>
-    <t>CP2102N-A02-GQFN28R</t>
-  </si>
-  <si>
-    <t>IC USB TO UART BRIDGE QFN28</t>
-  </si>
-  <si>
-    <t>2073-USB4105-GF-ACT-ND</t>
-  </si>
-  <si>
-    <t>USB4105-GF-A</t>
-  </si>
-  <si>
-    <t>CONN RCP USB2.0 TYP C 24P SMD RA</t>
-  </si>
-  <si>
-    <t>1965-ESP32-S3-WROOM-1-N16R2CT-ND</t>
-  </si>
-  <si>
-    <t>ESP32-S3-WROOM-1-N16R2</t>
-  </si>
-  <si>
-    <t>RF TXRX MODULE BT PCB TRACE SMD</t>
-  </si>
-  <si>
-    <t>2019-RCWCTECT-ND</t>
-  </si>
-  <si>
-    <t>RCWCTE</t>
-  </si>
-  <si>
-    <t>PC TEST POINT</t>
-  </si>
-  <si>
-    <t>P49.9KDACT-ND</t>
-  </si>
-  <si>
-    <t>ERA-6AEB4992V</t>
-  </si>
-  <si>
-    <t>RES SMD 49.9K OHM 0.1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>SI3993CDV-T1-GE3CT-ND</t>
-  </si>
-  <si>
-    <t>SI3993CDV-T1-GE3</t>
-  </si>
-  <si>
-    <t>MOSFET 2P-CH 30V 2.9A 6TSOP</t>
-  </si>
-  <si>
-    <t>SI3932DV-T1-GE3CT-ND</t>
-  </si>
-  <si>
-    <t>SI3932DV-T1-GE3</t>
-  </si>
-  <si>
-    <t>MOSFET 2N-CH 30V 3.7A 6TSOP</t>
-  </si>
-  <si>
-    <t>IRF9358TRPBFCT-ND</t>
-  </si>
-  <si>
-    <t>IRF9358TRPBF</t>
-  </si>
-  <si>
-    <t>MOSFET 2P-CH 30V 9.2A 8SO</t>
-  </si>
-  <si>
-    <t>4786-MMDT3904CT-ND</t>
-  </si>
-  <si>
-    <t>MMDT3904</t>
-  </si>
-  <si>
-    <t>TRANSISTOR, NPN, DUAL, 200MA, 60</t>
-  </si>
-  <si>
-    <t>NCP186AMX330TAGOSCT-ND</t>
-  </si>
-  <si>
-    <t>NCP186AMX330TAG</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 3.3V 1A 8XDFN</t>
-  </si>
-  <si>
-    <t>296-43584-1-ND</t>
-  </si>
-  <si>
-    <t>BQ24250RGER</t>
-  </si>
-  <si>
-    <t>IC BATT CHG LI-ION 1CELL 24VQFN</t>
-  </si>
-  <si>
-    <t>732-4984-1-ND</t>
-  </si>
-  <si>
-    <t>150080RS75000</t>
-  </si>
-  <si>
-    <t>LED RED CLEAR 0805 SMD</t>
-  </si>
-  <si>
-    <t>732-4986-1-ND</t>
-  </si>
-  <si>
-    <t>150080VS75000</t>
-  </si>
-  <si>
-    <t>LED GREEN CLEAR 0805 SMD</t>
-  </si>
-  <si>
-    <t>732-4987-1-ND</t>
-  </si>
-  <si>
-    <t>150080YS75000</t>
-  </si>
-  <si>
-    <t>LED YELLOW CLEAR 0805 SMD</t>
-  </si>
-  <si>
-    <t>D5V0M1U2S9-7DICT-ND</t>
-  </si>
-  <si>
-    <t>D5V0M1U2S9-7</t>
-  </si>
-  <si>
-    <t>TVS DIODE 5.5VWM 12VC SOD923</t>
-  </si>
-  <si>
-    <t>1727-5057-1-ND</t>
-  </si>
-  <si>
-    <t>NZH10C,115</t>
-  </si>
-  <si>
-    <t>DIODE ZENER 10V 500MW SOD123F</t>
-  </si>
-  <si>
-    <t>1568-1488-ND</t>
-  </si>
-  <si>
-    <t>PRT-12895</t>
-  </si>
-  <si>
-    <t>BATTERY LITH-ION 3.7V 2.6AH 1865</t>
-  </si>
-  <si>
-    <t>399-C0805C391J4HAC7800CT-ND</t>
-  </si>
-  <si>
-    <t>C0805C391J4HAC7800</t>
-  </si>
-  <si>
-    <t>CAP CER 390PF 16V X8R 0805</t>
-  </si>
-  <si>
-    <t>SMT Stencil</t>
+    <t>2042-1006-ND</t>
+  </si>
+  <si>
+    <t>BS02BL02X02RP</t>
+  </si>
+  <si>
+    <t>BUMPER HEMI .44" DIA X .2" BLK</t>
+  </si>
+  <si>
+    <t>SMT Stencil (from JLCPCB)</t>
+  </si>
+  <si>
+    <t>Benjamin Johnson &amp; Konnor Kivimagi</t>
+  </si>
+  <si>
+    <t>LCD Display Modules (from Amazon)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0D9TPFHQY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Total: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -277,6 +382,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,17 +407,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7B60FF47-0A56-4FBA-9E51-4CFEA0BD2F0C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -618,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,6 +805,9 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G2" s="2">
         <v>2</v>
       </c>
@@ -692,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.7</v>
+        <v>0.37</v>
       </c>
       <c r="J2" s="3">
-        <v>5.4</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -703,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -714,17 +837,20 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.87</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J3" s="3">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -743,6 +869,9 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G4" s="2">
         <v>2</v>
       </c>
@@ -750,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.0099999999999998</v>
+        <v>3.12</v>
       </c>
       <c r="J4" s="3">
-        <v>4.0199999999999996</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -761,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -772,17 +901,20 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.89</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>11.78</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -801,6 +933,9 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
@@ -808,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.9</v>
+        <v>6.62</v>
       </c>
       <c r="J6" s="3">
-        <v>11.8</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -830,6 +965,9 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G7" s="2">
         <v>4</v>
       </c>
@@ -837,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.04</v>
+        <v>0.13</v>
       </c>
       <c r="J7" s="3">
-        <v>4.16</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -848,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -859,17 +997,20 @@
       <c r="E8" t="s">
         <v>30</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.62</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="3">
-        <v>7.24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -877,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -888,17 +1029,20 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G9" s="2">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1196</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="3">
-        <v>5.98</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -906,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -917,17 +1061,20 @@
       <c r="E10" t="s">
         <v>36</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G10" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.10100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="J10" s="3">
-        <v>1.01</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -935,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -946,17 +1093,20 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
+      <c r="F11" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.76</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -964,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -975,17 +1125,20 @@
       <c r="E12" t="s">
         <v>42</v>
       </c>
+      <c r="F12" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.95</v>
+        <v>0.18</v>
       </c>
       <c r="J12" s="3">
-        <v>1.9</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -993,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
@@ -1004,17 +1157,20 @@
       <c r="E13" t="s">
         <v>45</v>
       </c>
+      <c r="F13" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="J13" s="3">
-        <v>3.56</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1022,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -1033,17 +1189,20 @@
       <c r="E14" t="s">
         <v>48</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="J14" s="3">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1062,6 +1221,9 @@
       <c r="E15" t="s">
         <v>51</v>
       </c>
+      <c r="F15" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G15" s="2">
         <v>2</v>
       </c>
@@ -1069,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="J15" s="3">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1091,6 +1253,9 @@
       <c r="E16" t="s">
         <v>54</v>
       </c>
+      <c r="F16" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G16" s="2">
         <v>2</v>
       </c>
@@ -1120,6 +1285,9 @@
       <c r="E17" t="s">
         <v>57</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
@@ -1127,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.18</v>
+        <v>0.8</v>
       </c>
       <c r="J17" s="3">
-        <v>0.36</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1138,7 +1306,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
@@ -1149,17 +1317,20 @@
       <c r="E18" t="s">
         <v>60</v>
       </c>
+      <c r="F18" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G18" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="J18" s="3">
-        <v>1.44</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1167,28 +1338,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2">
+        <v>61300411121</v>
+      </c>
+      <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="E19" t="s">
-        <v>63</v>
+      <c r="F19" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.18</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="J19" s="3">
-        <v>0.36</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1199,13 +1373,16 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2">
+        <v>61300311121</v>
+      </c>
+      <c r="E20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
+      <c r="F20" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G20" s="2">
         <v>10</v>
@@ -1214,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.8000000000000004E-2</v>
+        <v>0.113</v>
       </c>
       <c r="J20" s="3">
-        <v>0.98</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1228,13 +1405,16 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
+      <c r="F21" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
@@ -1243,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.15</v>
+        <v>1.78</v>
       </c>
       <c r="J21" s="3">
-        <v>0.3</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1257,13 +1437,16 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
+      <c r="F22" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
@@ -1272,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.62</v>
+        <v>0.95</v>
       </c>
       <c r="J22" s="3">
-        <v>13.24</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1283,52 +1466,458 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.76</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.12</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="2">
+        <v>100</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.1101</v>
+      </c>
+      <c r="J27" s="3">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>3.62</v>
+      </c>
+      <c r="J28" s="3">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="2">
         <v>4</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0.1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="2">
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1.04</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>5.79</v>
+      </c>
+      <c r="J30" s="3">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>5.89</v>
+      </c>
+      <c r="J31" s="3">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.87</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="2">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>9.8750000000000004E-2</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24">
-        <v>7</v>
-      </c>
-      <c r="J24">
-        <f>I24*B24</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="J25" s="3">
-        <f>SUM(J2:J24)</f>
-        <v>92.55</v>
+      <c r="C35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5">
+        <v>7.11</v>
+      </c>
+      <c r="J35" s="5">
+        <f>I35*B35</f>
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5">
+        <v>9.99</v>
+      </c>
+      <c r="J36" s="5">
+        <f>B36*I36</f>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="8">
+        <f>SUM(J2:J36)</f>
+        <v>119.97</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H37:I37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>